--- a/biology/Botanique/Strelitzia_caudata/Strelitzia_caudata.xlsx
+++ b/biology/Botanique/Strelitzia_caudata/Strelitzia_caudata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Strelitzia caudata , communément appelée strelitzia de montagne ou banane sauvage , est une espèce de Strelitzia semblable à la banane originaire d' Afrique.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce s'étend du Zimbabwe au sud du Mozambique, des provinces du nord de l'Afrique du Sud et d' Eswatini[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce s'étend du Zimbabwe au sud du Mozambique, des provinces du nord de l'Afrique du Sud et d' Eswatini. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cette espèce a été décrite pour la première fois en 1946 par Robert Allen Dyer dans Flowering Plants of Africa[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cette espèce a été décrite pour la première fois en 1946 par Robert Allen Dyer dans Flowering Plants of Africa.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithète spécifique caudata signifie haché, il s'agit d'un appendice d'un sépale, qui n'existe que chez cette espèce.  C'est l'une des trois grandes espèces de Strelitzia ressemblant à des bananes, toutes originaires d'Afrique australe, les deux autres étant S. alba et S. nicolai.
 </t>
